--- a/Data/Weather/Data collector 20210121.xlsx
+++ b/Data/Weather/Data collector 20210121.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,139 +430,139 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.2 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.4 </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.4 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.4 </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">200 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.4 </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">180 </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.00 </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.8 </t>
+          <t xml:space="preserve">1007.2 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.0 </t>
+          <t xml:space="preserve">1017.4 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">16.4 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.2 </t>
+          <t xml:space="preserve">15.4 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">92 </t>
+          <t xml:space="preserve">94 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">90 </t>
+          <t xml:space="preserve">200 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.3 </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 </t>
+          <t xml:space="preserve">180 </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -597,29 +597,29 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.7 </t>
+          <t xml:space="preserve">1006.8 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.9 </t>
+          <t xml:space="preserve">1017.0 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -629,29 +629,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t xml:space="preserve">92 </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.3 </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t xml:space="preserve">90 </t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.4 </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.3 </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t xml:space="preserve">100 </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.2 </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">140 </t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0 </t>
@@ -674,7 +674,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">8.0 </t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -684,49 +684,49 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">9.0 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.4 </t>
+          <t xml:space="preserve">1006.7 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.6 </t>
+          <t xml:space="preserve">1016.9 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.4 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.9 </t>
+          <t xml:space="preserve">15.2 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">91 </t>
+          <t xml:space="preserve">90 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">160 </t>
+          <t xml:space="preserve">100 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">130 </t>
+          <t xml:space="preserve">140 </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -778,52 +778,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.5 </t>
+          <t xml:space="preserve">1006.4 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.7 </t>
+          <t xml:space="preserve">1016.6 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.0 </t>
+          <t xml:space="preserve">16.4 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.7 </t>
+          <t xml:space="preserve">14.9 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">92 </t>
+          <t xml:space="preserve">91 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">200 </t>
+          <t xml:space="preserve">160 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">140 </t>
+          <t xml:space="preserve">130 </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -858,59 +858,59 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.9 </t>
+          <t xml:space="preserve">1006.5 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.1 </t>
+          <t xml:space="preserve">1016.7 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.9 </t>
+          <t xml:space="preserve">16.0 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.9 </t>
+          <t xml:space="preserve">14.7 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">92 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">130 </t>
+          <t xml:space="preserve">200 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.6 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">130 </t>
+          <t xml:space="preserve">140 </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -945,29 +945,29 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">4.0 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.8 </t>
+          <t xml:space="preserve">1006.9 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1017.0 </t>
+          <t xml:space="preserve">1017.1 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.4 </t>
+          <t xml:space="preserve">15.9 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -977,27 +977,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">91 </t>
+          <t xml:space="preserve">94 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">130 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">40 </t>
+          <t xml:space="preserve">130 </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.01 </t>
+          <t xml:space="preserve">0.00 </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1039,32 +1039,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.7 </t>
+          <t xml:space="preserve">1006.8 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.9 </t>
+          <t xml:space="preserve">1017.0 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.3 </t>
+          <t xml:space="preserve">16.4 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.5 </t>
+          <t xml:space="preserve">14.9 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">89 </t>
+          <t xml:space="preserve">91 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">150 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.4 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">310 </t>
+          <t xml:space="preserve">40 </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.20 </t>
+          <t xml:space="preserve">0.01 </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1119,14 +1119,14 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.8 </t>
+          <t xml:space="preserve">1016.9 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.4 </t>
+          <t xml:space="preserve">17.3 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1151,27 +1151,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">78 </t>
+          <t xml:space="preserve">89 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">240 </t>
+          <t xml:space="preserve">150 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.5 </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">140 </t>
+          <t xml:space="preserve">310 </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.62 </t>
+          <t xml:space="preserve">0.20 </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1201,64 +1201,64 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.0 </t>
+          <t xml:space="preserve">7.0 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.4 </t>
+          <t xml:space="preserve">1006.7 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1016.4 </t>
+          <t xml:space="preserve">1016.8 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.2 </t>
+          <t xml:space="preserve">19.4 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.8 </t>
+          <t xml:space="preserve">15.5 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">67 </t>
+          <t xml:space="preserve">78 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.3 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">230 </t>
+          <t xml:space="preserve">240 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.8 </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">240 </t>
+          <t xml:space="preserve">140 </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1273,79 +1273,79 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2 </t>
+          <t xml:space="preserve">0.1 </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.42 </t>
+          <t xml:space="preserve">0.62 </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">9.0 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1005.6 </t>
+          <t xml:space="preserve">1006.4 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1015.5 </t>
+          <t xml:space="preserve">1016.4 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.3 </t>
+          <t xml:space="preserve">22.2 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.2 </t>
+          <t xml:space="preserve">15.8 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">57 </t>
+          <t xml:space="preserve">67 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">130 </t>
+          <t xml:space="preserve">230 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.6 </t>
+          <t xml:space="preserve">2.8 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">260 </t>
+          <t xml:space="preserve">240 </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1360,79 +1360,79 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.12 </t>
+          <t xml:space="preserve">1.42 </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1004.2 </t>
+          <t xml:space="preserve">1005.6 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.0 </t>
+          <t xml:space="preserve">1015.5 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">27.5 </t>
+          <t xml:space="preserve">25.3 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t xml:space="preserve">16.2 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">52 </t>
+          <t xml:space="preserve">57 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">290 </t>
+          <t xml:space="preserve">130 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.8 </t>
+          <t xml:space="preserve">2.6 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">330 </t>
+          <t xml:space="preserve">260 </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1447,59 +1447,59 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.18 </t>
+          <t xml:space="preserve">2.12 </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">9.0 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1002.8 </t>
+          <t xml:space="preserve">1004.2 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.5 </t>
+          <t xml:space="preserve">1014.0 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">30.0 </t>
+          <t xml:space="preserve">27.5 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">12.5 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 </t>
+          <t xml:space="preserve">52 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1509,17 +1509,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">290 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.1 </t>
+          <t xml:space="preserve">2.8 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">260 </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.16 </t>
+          <t xml:space="preserve">2.18 </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1561,37 +1561,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1002.3 </t>
+          <t xml:space="preserve">1002.8 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.1 </t>
+          <t xml:space="preserve">1012.5 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">27.2 </t>
+          <t xml:space="preserve">30.0 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.2 </t>
+          <t xml:space="preserve">12.5 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">51 </t>
+          <t xml:space="preserve">34 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.4 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.6 </t>
+          <t xml:space="preserve">3.1 </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">260 </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1621,74 +1621,74 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.52 </t>
+          <t xml:space="preserve">2.16 </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">6 </t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1001.7 </t>
+          <t xml:space="preserve">1002.3 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.5 </t>
+          <t xml:space="preserve">1012.1 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">26.1 </t>
+          <t xml:space="preserve">27.2 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.7 </t>
+          <t xml:space="preserve">16.2 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">56 </t>
+          <t xml:space="preserve">51 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.6 </t>
+          <t xml:space="preserve">2.4 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">330 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.5 </t>
+          <t xml:space="preserve">5.6 </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1713,74 +1713,74 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.29 </t>
+          <t xml:space="preserve">1.52 </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">9.0 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1001.9 </t>
+          <t xml:space="preserve">1001.7 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.8 </t>
+          <t xml:space="preserve">1011.5 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">24.7 </t>
+          <t xml:space="preserve">26.1 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.0 </t>
+          <t xml:space="preserve">16.7 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">62 </t>
+          <t xml:space="preserve">56 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.9 </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.7 </t>
+          <t xml:space="preserve">4.5 </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">340 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.95 </t>
+          <t xml:space="preserve">1.29 </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1822,22 +1822,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1002.6 </t>
+          <t xml:space="preserve">1001.9 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.6 </t>
+          <t xml:space="preserve">1011.8 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.5 </t>
+          <t xml:space="preserve">24.7 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1847,29 +1847,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.6 </t>
+          <t xml:space="preserve">2.9 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t xml:space="preserve">360 </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.7 </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t xml:space="preserve">340 </t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6.0 </t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">340 </t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0 </t>
@@ -1882,74 +1882,74 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.31 </t>
+          <t xml:space="preserve">0.95 </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve">12.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1003.1 </t>
+          <t xml:space="preserve">1002.6 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.1 </t>
+          <t xml:space="preserve">1012.6 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.1 </t>
+          <t xml:space="preserve">22.5 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">72 </t>
+          <t xml:space="preserve">71 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">310 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.0 </t>
+          <t xml:space="preserve">6.0 </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1974,12 +1974,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.03 </t>
+          <t xml:space="preserve">0.31 </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">12.0 </t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1989,34 +1989,34 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">9.0 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1003.5 </t>
+          <t xml:space="preserve">1003.1 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.5 </t>
+          <t xml:space="preserve">1013.1 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.8 </t>
+          <t xml:space="preserve">22.1 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2026,24 +2026,24 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t xml:space="preserve">310 </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0 </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t xml:space="preserve">340 </t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3.8 </t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">340 </t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t xml:space="preserve">0.0 </t>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.00 </t>
+          <t xml:space="preserve">0.03 </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2083,32 +2083,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1003.6 </t>
+          <t xml:space="preserve">1003.5 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.6 </t>
+          <t xml:space="preserve">1013.5 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.4 </t>
+          <t xml:space="preserve">21.8 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2118,17 +2118,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">330 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.1 </t>
+          <t xml:space="preserve">3.8 </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">290 </t>
+          <t xml:space="preserve">340 </t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2185,37 +2185,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.3 </t>
+          <t xml:space="preserve">21.4 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.9 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.3 </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">360 </t>
+          <t xml:space="preserve">330 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.9 </t>
+          <t xml:space="preserve">3.1 </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">350 </t>
+          <t xml:space="preserve">290 </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.0 </t>
+          <t xml:space="preserve">9.0 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2272,37 +2272,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.0 </t>
+          <t xml:space="preserve">21.3 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.0 </t>
+          <t xml:space="preserve">16.9 </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">78 </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 </t>
+          <t xml:space="preserve">360 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t xml:space="preserve">2.9 </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">310 </t>
+          <t xml:space="preserve">350 </t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2337,34 +2337,34 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t xml:space="preserve">8.0 </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1003.1 </t>
+          <t xml:space="preserve">1003.6 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.1 </t>
+          <t xml:space="preserve">1013.6 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.1 </t>
+          <t xml:space="preserve">21.0 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.1 </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2374,142 +2374,229 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t xml:space="preserve">110 </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.1 </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">310 </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.00 </t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t xml:space="preserve">0 </t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.2 </t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">150 </t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.00 </t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10.0 </t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 </t>
-        </is>
-      </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.0 </t>
+          <t xml:space="preserve">... </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">1003.1 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1013.1 </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21.1 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17.1 </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.2 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2 </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">150 </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.00 </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0 </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.0 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">1003.2 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">1013.2 </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">20.9 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">17.1 </t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">79 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">1.1 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">220 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t xml:space="preserve">2.3 </t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t xml:space="preserve">200 </t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t xml:space="preserve">0.00 </t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t xml:space="preserve">0 </t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -2526,7 +2613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,99 +2624,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">990.4 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.0 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">93 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">211 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">990.2 </t>
+          <t xml:space="preserve">990.4 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2639,7 +2726,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.3 </t>
+          <t xml:space="preserve">16.0 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2649,17 +2736,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">92 </t>
+          <t xml:space="preserve">93 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.1 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">37 </t>
+          <t xml:space="preserve">211 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2711,7 +2798,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2726,7 +2813,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.4 </t>
+          <t xml:space="preserve">16.3 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2736,17 +2823,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">90 </t>
+          <t xml:space="preserve">92 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">37 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2798,12 +2885,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">989.7 </t>
+          <t xml:space="preserve">990.2 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2813,7 +2900,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.4 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2823,17 +2910,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">87 </t>
+          <t xml:space="preserve">90 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">44 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2848,7 +2935,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">X </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -2885,7 +2972,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2900,7 +2987,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2910,17 +2997,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">83 </t>
+          <t xml:space="preserve">87 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.1 </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 </t>
+          <t xml:space="preserve">44 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2935,7 +3022,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -2972,12 +3059,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">990.2 </t>
+          <t xml:space="preserve">989.7 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2987,7 +3074,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2997,17 +3084,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">81 </t>
+          <t xml:space="preserve">83 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">20 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3059,7 +3146,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3074,7 +3161,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.5 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3084,17 +3171,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">83 </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">44 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3146,12 +3233,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">990.0 </t>
+          <t xml:space="preserve">990.2 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3161,7 +3248,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.0 </t>
+          <t xml:space="preserve">16.5 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3171,17 +3258,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">66 </t>
+          <t xml:space="preserve">83 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">43 </t>
+          <t xml:space="preserve">44 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3233,12 +3320,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">990.1 </t>
+          <t xml:space="preserve">990.0 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3248,7 +3335,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.3 </t>
+          <t xml:space="preserve">19.0 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3258,17 +3345,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">47 </t>
+          <t xml:space="preserve">66 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">33 </t>
+          <t xml:space="preserve">43 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3320,12 +3407,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">990.0 </t>
+          <t xml:space="preserve">990.1 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3335,7 +3422,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">24.1 </t>
+          <t xml:space="preserve">22.3 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3345,17 +3432,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">46 </t>
+          <t xml:space="preserve">47 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 </t>
+          <t xml:space="preserve">33 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3407,12 +3494,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">989.4 </t>
+          <t xml:space="preserve">990.0 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3422,7 +3509,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.6 </t>
+          <t xml:space="preserve">24.1 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3432,7 +3519,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">59 </t>
+          <t xml:space="preserve">46 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3442,7 +3529,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">307 </t>
+          <t xml:space="preserve">315 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3494,12 +3581,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">988.1 </t>
+          <t xml:space="preserve">989.4 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3509,7 +3596,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">26.5 </t>
+          <t xml:space="preserve">23.6 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3519,17 +3606,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">44 </t>
+          <t xml:space="preserve">59 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.7 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">319 </t>
+          <t xml:space="preserve">307 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3581,12 +3668,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">986.9 </t>
+          <t xml:space="preserve">988.1 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3596,7 +3683,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">28.5 </t>
+          <t xml:space="preserve">26.5 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3606,17 +3693,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 </t>
+          <t xml:space="preserve">44 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.6 </t>
+          <t xml:space="preserve">1.7 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">338 </t>
+          <t xml:space="preserve">319 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3668,12 +3755,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">986.5 </t>
+          <t xml:space="preserve">986.9 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3683,7 +3770,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.5 </t>
+          <t xml:space="preserve">28.5 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3693,17 +3780,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">51 </t>
+          <t xml:space="preserve">25 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.6 </t>
+          <t xml:space="preserve">2.6 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">321 </t>
+          <t xml:space="preserve">338 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3755,12 +3842,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">985.8 </t>
+          <t xml:space="preserve">986.5 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3770,7 +3857,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.0 </t>
+          <t xml:space="preserve">25.5 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3780,17 +3867,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">52 </t>
+          <t xml:space="preserve">51 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">345 </t>
+          <t xml:space="preserve">321 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3842,12 +3929,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">985.9 </t>
+          <t xml:space="preserve">985.8 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3857,7 +3944,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.8 </t>
+          <t xml:space="preserve">25.0 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3867,17 +3954,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">61 </t>
+          <t xml:space="preserve">52 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.8 </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">317 </t>
+          <t xml:space="preserve">345 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3929,12 +4016,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">986.2 </t>
+          <t xml:space="preserve">985.9 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3944,7 +4031,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.3 </t>
+          <t xml:space="preserve">22.8 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3954,17 +4041,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">70 </t>
+          <t xml:space="preserve">61 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">1.8 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">337 </t>
+          <t xml:space="preserve">317 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4016,12 +4103,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">986.7 </t>
+          <t xml:space="preserve">986.2 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4031,7 +4118,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.0 </t>
+          <t xml:space="preserve">21.3 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4046,12 +4133,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.1 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">342 </t>
+          <t xml:space="preserve">337 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4103,12 +4190,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">987.0 </t>
+          <t xml:space="preserve">986.7 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4118,7 +4205,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.1 </t>
+          <t xml:space="preserve">21.0 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4128,17 +4215,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">70 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">323 </t>
+          <t xml:space="preserve">342 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4190,12 +4277,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">987.2 </t>
+          <t xml:space="preserve">987.0 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4205,7 +4292,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.3 </t>
+          <t xml:space="preserve">20.1 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4220,12 +4307,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">299 </t>
+          <t xml:space="preserve">323 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4277,7 +4364,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4292,7 +4379,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.8 </t>
+          <t xml:space="preserve">20.3 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4302,17 +4389,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">80 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">342 </t>
+          <t xml:space="preserve">299 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4364,12 +4451,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">987.0 </t>
+          <t xml:space="preserve">987.2 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4379,7 +4466,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.4 </t>
+          <t xml:space="preserve">19.8 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4389,17 +4476,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">37 </t>
+          <t xml:space="preserve">342 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4451,12 +4538,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">986.8 </t>
+          <t xml:space="preserve">987.0 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4466,7 +4553,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.0 </t>
+          <t xml:space="preserve">20.4 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4476,12 +4563,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">61 </t>
+          <t xml:space="preserve">76 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4538,85 +4625,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">986.8 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21.0 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">61 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">986.6 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">20.7 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">57 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">0 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -4633,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4644,99 +4818,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">996.7 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.5 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">91 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">996.7 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4746,7 +4920,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">17.5 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4756,17 +4930,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">91 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4818,12 +4992,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">996.3 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4833,7 +5007,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.0 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4843,17 +5017,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">89 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4905,12 +5079,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">995.8 </t>
+          <t xml:space="preserve">996.3 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4992,12 +5166,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">995.9 </t>
+          <t xml:space="preserve">995.8 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5007,7 +5181,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.1 </t>
+          <t xml:space="preserve">18.0 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -5017,12 +5191,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">88 </t>
+          <t xml:space="preserve">89 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5079,12 +5253,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">996.4 </t>
+          <t xml:space="preserve">995.9 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5094,7 +5268,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.8 </t>
+          <t xml:space="preserve">18.1 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5104,7 +5278,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">90 </t>
+          <t xml:space="preserve">88 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -5166,7 +5340,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5181,7 +5355,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.9 </t>
+          <t xml:space="preserve">17.8 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5196,7 +5370,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2 </t>
+          <t xml:space="preserve">0.1 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -5253,12 +5427,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">996.1 </t>
+          <t xml:space="preserve">996.4 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5268,7 +5442,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.4 </t>
+          <t xml:space="preserve">17.9 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5278,12 +5452,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">81 </t>
+          <t xml:space="preserve">90 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -5340,12 +5514,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">996.3 </t>
+          <t xml:space="preserve">996.1 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5355,7 +5529,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.8 </t>
+          <t xml:space="preserve">19.4 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5365,17 +5539,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">283 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5427,12 +5601,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">996.2 </t>
+          <t xml:space="preserve">996.3 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5442,7 +5616,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.4 </t>
+          <t xml:space="preserve">20.8 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5452,17 +5626,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">69 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1 </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">283 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5514,12 +5688,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">995.7 </t>
+          <t xml:space="preserve">996.2 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5529,7 +5703,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.2 </t>
+          <t xml:space="preserve">23.4 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5539,17 +5713,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">65 </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.1 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">311 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -5601,12 +5775,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">994.5 </t>
+          <t xml:space="preserve">995.7 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5616,7 +5790,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">27.7 </t>
+          <t xml:space="preserve">25.2 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5626,17 +5800,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">56 </t>
+          <t xml:space="preserve">65 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">301 </t>
+          <t xml:space="preserve">311 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5688,12 +5862,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">993.1 </t>
+          <t xml:space="preserve">994.5 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5703,7 +5877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">30.9 </t>
+          <t xml:space="preserve">27.7 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -5713,17 +5887,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 </t>
+          <t xml:space="preserve">56 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">301 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5775,12 +5949,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">993.1 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5790,7 +5964,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">30.9 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5800,17 +5974,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">34 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5862,12 +6036,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.2 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5877,7 +6051,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">26.9 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5887,17 +6061,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">60 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">303 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -5949,7 +6123,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5964,7 +6138,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.0 </t>
+          <t xml:space="preserve">26.9 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5974,17 +6148,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">67 </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">343 </t>
+          <t xml:space="preserve">303 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -6036,12 +6210,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.5 </t>
+          <t xml:space="preserve">992.2 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6051,7 +6225,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.3 </t>
+          <t xml:space="preserve">25.0 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -6061,7 +6235,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">73 </t>
+          <t xml:space="preserve">67 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -6071,7 +6245,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">343 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -6123,12 +6297,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">993.0 </t>
+          <t xml:space="preserve">992.5 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6138,7 +6312,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.9 </t>
+          <t xml:space="preserve">23.3 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -6153,12 +6327,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">308 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6210,12 +6384,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">993.3 </t>
+          <t xml:space="preserve">993.0 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6225,7 +6399,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.1 </t>
+          <t xml:space="preserve">22.9 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -6235,17 +6409,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.2 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">308 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6297,12 +6471,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">993.4 </t>
+          <t xml:space="preserve">993.3 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6312,7 +6486,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.7 </t>
+          <t xml:space="preserve">22.1 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -6322,17 +6496,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">80 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">0.2 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">308 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -6384,12 +6558,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">993.4 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6399,7 +6573,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">21.7 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -6409,17 +6583,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">80 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">308 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -6471,12 +6645,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">993.2 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6486,7 +6660,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.4 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -6496,17 +6670,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">76 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -6558,12 +6732,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">992.9 </t>
+          <t xml:space="preserve">993.2 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6573,7 +6747,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.5 </t>
+          <t xml:space="preserve">22.4 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -6588,7 +6762,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.1 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6645,85 +6819,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">992.9 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22.5 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">992.8 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">21.9 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">79 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">0 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -6740,7 +7001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6751,99 +7012,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014.0 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.0 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">91 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">322 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.7 </t>
+          <t xml:space="preserve">1014.0 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6868,12 +7129,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">322 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6925,12 +7186,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.4 </t>
+          <t xml:space="preserve">1013.7 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6950,7 +7211,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">92 </t>
+          <t xml:space="preserve">91 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -7012,12 +7273,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.2 </t>
+          <t xml:space="preserve">1013.4 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7027,7 +7288,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.8 </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -7042,12 +7303,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">165 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -7099,12 +7360,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.3 </t>
+          <t xml:space="preserve">1013.2 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7129,12 +7390,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">165 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -7186,12 +7447,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.7 </t>
+          <t xml:space="preserve">1013.3 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7201,7 +7462,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.8 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -7211,12 +7472,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">91 </t>
+          <t xml:space="preserve">92 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7273,12 +7534,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.6 </t>
+          <t xml:space="preserve">1013.7 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7288,7 +7549,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.9 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -7298,12 +7559,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">90 </t>
+          <t xml:space="preserve">91 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.1 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -7360,12 +7621,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.5 </t>
+          <t xml:space="preserve">1013.6 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7375,7 +7636,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">17.0 </t>
+          <t xml:space="preserve">16.9 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -7385,17 +7646,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">88 </t>
+          <t xml:space="preserve">90 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.0 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">156 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7447,12 +7708,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.6 </t>
+          <t xml:space="preserve">1013.5 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7462,7 +7723,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.4 </t>
+          <t xml:space="preserve">17.0 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -7472,17 +7733,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">88 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">252 </t>
+          <t xml:space="preserve">156 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7534,12 +7795,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.3 </t>
+          <t xml:space="preserve">1013.6 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7549,7 +7810,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.5 </t>
+          <t xml:space="preserve">18.4 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -7559,17 +7820,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">69 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.0 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">295 </t>
+          <t xml:space="preserve">252 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -7621,12 +7882,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.7 </t>
+          <t xml:space="preserve">1013.3 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7636,7 +7897,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.5 </t>
+          <t xml:space="preserve">21.5 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7646,17 +7907,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">72 </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">262 </t>
+          <t xml:space="preserve">295 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7708,12 +7969,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.5 </t>
+          <t xml:space="preserve">1012.7 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7723,7 +7984,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">24.5 </t>
+          <t xml:space="preserve">22.5 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7733,17 +7994,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">64 </t>
+          <t xml:space="preserve">72 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.7 </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">246 </t>
+          <t xml:space="preserve">262 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -7795,12 +8056,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.1 </t>
+          <t xml:space="preserve">1011.5 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7810,7 +8071,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">26.5 </t>
+          <t xml:space="preserve">24.5 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -7820,17 +8081,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">57 </t>
+          <t xml:space="preserve">64 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.9 </t>
+          <t xml:space="preserve">2.7 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">273 </t>
+          <t xml:space="preserve">246 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7882,12 +8143,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.5 </t>
+          <t xml:space="preserve">1010.1 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7897,7 +8158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.4 </t>
+          <t xml:space="preserve">26.5 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -7907,7 +8168,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">61 </t>
+          <t xml:space="preserve">57 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7917,7 +8178,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">240 </t>
+          <t xml:space="preserve">273 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7969,12 +8230,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008.9 </t>
+          <t xml:space="preserve">1009.5 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7984,7 +8245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.6 </t>
+          <t xml:space="preserve">25.4 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -7994,17 +8255,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">60 </t>
+          <t xml:space="preserve">61 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.2 </t>
+          <t xml:space="preserve">3.9 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">249 </t>
+          <t xml:space="preserve">240 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8056,7 +8317,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8071,7 +8332,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">24.5 </t>
+          <t xml:space="preserve">25.6 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8081,17 +8342,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">64 </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">250 </t>
+          <t xml:space="preserve">249 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -8143,12 +8404,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.4 </t>
+          <t xml:space="preserve">1008.9 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8158,7 +8419,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.6 </t>
+          <t xml:space="preserve">24.5 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8168,17 +8429,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">67 </t>
+          <t xml:space="preserve">64 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.2 </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 </t>
+          <t xml:space="preserve">250 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -8230,12 +8491,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.1 </t>
+          <t xml:space="preserve">1009.4 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8245,7 +8506,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.3 </t>
+          <t xml:space="preserve">23.6 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8255,17 +8516,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">71 </t>
+          <t xml:space="preserve">67 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.5 </t>
+          <t xml:space="preserve">3.2 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">11 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -8317,12 +8578,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.4 </t>
+          <t xml:space="preserve">1010.1 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8332,7 +8593,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.4 </t>
+          <t xml:space="preserve">22.3 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8347,12 +8608,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">3.5 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">334 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -8404,12 +8665,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.6 </t>
+          <t xml:space="preserve">1010.4 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8419,7 +8680,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.4 </t>
+          <t xml:space="preserve">22.4 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -8429,17 +8690,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">77 </t>
+          <t xml:space="preserve">71 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.0 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">319 </t>
+          <t xml:space="preserve">334 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -8491,12 +8752,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.5 </t>
+          <t xml:space="preserve">1010.6 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8506,7 +8767,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.8 </t>
+          <t xml:space="preserve">21.4 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -8516,7 +8777,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">75 </t>
+          <t xml:space="preserve">77 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8526,7 +8787,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">356 </t>
+          <t xml:space="preserve">319 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -8578,12 +8839,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.6 </t>
+          <t xml:space="preserve">1010.5 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8593,7 +8854,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.9 </t>
+          <t xml:space="preserve">21.8 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -8603,17 +8864,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">73 </t>
+          <t xml:space="preserve">75 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.1 </t>
+          <t xml:space="preserve">2.0 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">356 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -8665,12 +8926,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.1 </t>
+          <t xml:space="preserve">1010.6 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8680,7 +8941,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.0 </t>
+          <t xml:space="preserve">21.9 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -8690,12 +8951,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">79 </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.1 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -8752,85 +9013,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">1010.1 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21.0 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">1010.2 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">20.3 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">83 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">2.2 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">269 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -8847,7 +9195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8858,99 +9206,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.0 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.4 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">98 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.7 </t>
+          <t xml:space="preserve">1011.0 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8960,7 +9308,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.1 </t>
+          <t xml:space="preserve">16.4 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8975,12 +9323,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -9032,12 +9380,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.3 </t>
+          <t xml:space="preserve">1010.7 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9047,7 +9395,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.0 </t>
+          <t xml:space="preserve">16.1 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -9062,12 +9410,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.1 </t>
+          <t xml:space="preserve">0.4 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -9119,12 +9467,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.1 </t>
+          <t xml:space="preserve">1010.3 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9134,7 +9482,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.3 </t>
+          <t xml:space="preserve">16.0 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -9149,12 +9497,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -9206,12 +9554,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.2 </t>
+          <t xml:space="preserve">1010.1 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9221,7 +9569,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.1 </t>
+          <t xml:space="preserve">16.3 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -9236,12 +9584,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.3 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">352 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -9293,12 +9641,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.5 </t>
+          <t xml:space="preserve">1010.2 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9308,7 +9656,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.9 </t>
+          <t xml:space="preserve">16.1 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -9323,12 +9671,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">1.3 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">138 </t>
+          <t xml:space="preserve">352 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -9380,12 +9728,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.4 </t>
+          <t xml:space="preserve">1010.5 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9395,7 +9743,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.3 </t>
+          <t xml:space="preserve">15.9 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -9410,12 +9758,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.2 </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">347 </t>
+          <t xml:space="preserve">138 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -9467,12 +9815,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.3 </t>
+          <t xml:space="preserve">1010.4 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9482,7 +9830,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.6 </t>
+          <t xml:space="preserve">16.3 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -9497,12 +9845,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">2.2 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">347 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -9554,12 +9902,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.4 </t>
+          <t xml:space="preserve">1010.3 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9569,7 +9917,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.6 </t>
+          <t xml:space="preserve">16.6 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -9584,12 +9932,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.5 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">321 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -9641,12 +9989,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.3 </t>
+          <t xml:space="preserve">1010.4 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9656,7 +10004,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.8 </t>
+          <t xml:space="preserve">18.6 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -9666,17 +10014,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">99 </t>
+          <t xml:space="preserve">98 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">3.7 </t>
+          <t xml:space="preserve">1.5 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">307 </t>
+          <t xml:space="preserve">321 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -9691,7 +10039,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">X </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -9728,12 +10076,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">1010.3 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9743,7 +10091,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">19.8 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -9753,17 +10101,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">99 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">3.7 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">/ </t>
+          <t xml:space="preserve">307 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -9778,7 +10126,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">X </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -9815,12 +10163,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008.4 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9830,7 +10178,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.9 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -9840,17 +10188,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">69 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.5 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">306 </t>
+          <t xml:space="preserve">/ </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -9902,12 +10250,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.1 </t>
+          <t xml:space="preserve">1008.4 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9917,7 +10265,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">24.6 </t>
+          <t xml:space="preserve">22.9 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -9927,17 +10275,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">60 </t>
+          <t xml:space="preserve">69 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2 </t>
+          <t xml:space="preserve">2.5 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 </t>
+          <t xml:space="preserve">306 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -9989,12 +10337,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.5 </t>
+          <t xml:space="preserve">1007.1 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -10004,7 +10352,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.6 </t>
+          <t xml:space="preserve">24.6 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -10014,17 +10362,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">62 </t>
+          <t xml:space="preserve">60 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.7 </t>
+          <t xml:space="preserve">4.2 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">321 </t>
+          <t xml:space="preserve">315 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -10076,12 +10424,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.0 </t>
+          <t xml:space="preserve">1006.5 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -10091,7 +10439,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.6 </t>
+          <t xml:space="preserve">23.6 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -10101,17 +10449,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">66 </t>
+          <t xml:space="preserve">62 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.1 </t>
+          <t xml:space="preserve">4.7 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">341 </t>
+          <t xml:space="preserve">321 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -10163,12 +10511,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.1 </t>
+          <t xml:space="preserve">1006.0 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -10178,7 +10526,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.5 </t>
+          <t xml:space="preserve">22.6 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -10188,17 +10536,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">73 </t>
+          <t xml:space="preserve">66 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2 </t>
+          <t xml:space="preserve">4.1 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">333 </t>
+          <t xml:space="preserve">341 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -10250,12 +10598,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006.6 </t>
+          <t xml:space="preserve">1006.1 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -10265,7 +10613,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.7 </t>
+          <t xml:space="preserve">21.5 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -10275,17 +10623,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">79 </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.5 </t>
+          <t xml:space="preserve">4.2 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">331 </t>
+          <t xml:space="preserve">333 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -10337,12 +10685,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.2 </t>
+          <t xml:space="preserve">1006.6 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10352,7 +10700,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.2 </t>
+          <t xml:space="preserve">20.7 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -10362,17 +10710,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">83 </t>
+          <t xml:space="preserve">79 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.4 </t>
+          <t xml:space="preserve">2.5 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">327 </t>
+          <t xml:space="preserve">331 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -10424,12 +10772,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.5 </t>
+          <t xml:space="preserve">1007.2 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -10439,7 +10787,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.1 </t>
+          <t xml:space="preserve">20.2 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -10449,17 +10797,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">83 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">2.4 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">327 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -10511,12 +10859,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.4 </t>
+          <t xml:space="preserve">1007.5 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -10526,7 +10874,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">19.9 </t>
+          <t xml:space="preserve">20.1 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -10536,17 +10884,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">86 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.6 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">338 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -10598,12 +10946,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.3 </t>
+          <t xml:space="preserve">1007.4 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -10613,7 +10961,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">19.9 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -10628,12 +10976,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1 </t>
+          <t xml:space="preserve">1.6 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">354 </t>
+          <t xml:space="preserve">338 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -10685,7 +11033,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -10700,7 +11048,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.1 </t>
+          <t xml:space="preserve">20.0 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -10715,12 +11063,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.1 </t>
+          <t xml:space="preserve">2.1 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -10772,12 +11120,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.2 </t>
+          <t xml:space="preserve">1007.3 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -10787,7 +11135,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.0 </t>
+          <t xml:space="preserve">20.1 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -10797,17 +11145,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">87 </t>
+          <t xml:space="preserve">86 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.4 </t>
+          <t xml:space="preserve">1.1 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">180 </t>
+          <t xml:space="preserve">315 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -10859,85 +11207,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">1007.2 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20.0 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.4 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">/ </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
@@ -10954,7 +11389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10965,99 +11400,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>ObsTime</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1013.0 </t>
+          <t>StnPres</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SeaPres</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.9 </t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Td_dew_point</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">99 </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t>WD</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WSGust</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>WDGust</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>Precp</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>PrecpHour</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>SunShine</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>GloblRad</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>Visb</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>UVI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t xml:space="preserve">... </t>
+          <t>CloudAmount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.9 </t>
+          <t xml:space="preserve">1013.0 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11067,7 +11502,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.1 </t>
+          <t xml:space="preserve">15.9 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -11139,12 +11574,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.4 </t>
+          <t xml:space="preserve">1012.9 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11226,12 +11661,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.3 </t>
+          <t xml:space="preserve">1012.4 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11241,7 +11676,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16.0 </t>
+          <t xml:space="preserve">16.1 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -11313,12 +11748,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.4 </t>
+          <t xml:space="preserve">1012.3 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11328,7 +11763,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.5 </t>
+          <t xml:space="preserve">16.0 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -11400,12 +11835,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.6 </t>
+          <t xml:space="preserve">1012.4 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11415,7 +11850,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.2 </t>
+          <t xml:space="preserve">15.5 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -11430,12 +11865,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">146 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -11487,12 +11922,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.4 </t>
+          <t xml:space="preserve">1012.6 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -11502,7 +11937,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">14.9 </t>
+          <t xml:space="preserve">15.2 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -11517,12 +11952,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.5 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">129 </t>
+          <t xml:space="preserve">146 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -11574,12 +12009,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.5 </t>
+          <t xml:space="preserve">1012.4 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -11589,7 +12024,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">15.8 </t>
+          <t xml:space="preserve">14.9 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -11604,12 +12039,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.5 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">173 </t>
+          <t xml:space="preserve">129 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -11661,12 +12096,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.6 </t>
+          <t xml:space="preserve">1012.5 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -11676,7 +12111,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">18.4 </t>
+          <t xml:space="preserve">15.8 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -11691,12 +12126,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">337 </t>
+          <t xml:space="preserve">173 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -11748,12 +12183,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1012.3 </t>
+          <t xml:space="preserve">1012.6 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -11763,7 +12198,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.2 </t>
+          <t xml:space="preserve">18.4 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -11773,17 +12208,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">73 </t>
+          <t xml:space="preserve">99 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">317 </t>
+          <t xml:space="preserve">337 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -11835,12 +12270,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011.7 </t>
+          <t xml:space="preserve">1012.3 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -11850,7 +12285,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.7 </t>
+          <t xml:space="preserve">22.2 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -11865,12 +12300,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">324 </t>
+          <t xml:space="preserve">317 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -11922,12 +12357,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1010.3 </t>
+          <t xml:space="preserve">1011.7 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -11937,7 +12372,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.0 </t>
+          <t xml:space="preserve">22.7 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -11947,17 +12382,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">63 </t>
+          <t xml:space="preserve">73 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.9 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 </t>
+          <t xml:space="preserve">324 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -12009,12 +12444,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008.9 </t>
+          <t xml:space="preserve">1010.3 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -12024,7 +12459,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">27.1 </t>
+          <t xml:space="preserve">25.0 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -12034,7 +12469,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">54 </t>
+          <t xml:space="preserve">63 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -12044,7 +12479,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">291 </t>
+          <t xml:space="preserve">315 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -12096,12 +12531,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008.4 </t>
+          <t xml:space="preserve">1008.9 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -12111,7 +12546,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">26.8 </t>
+          <t xml:space="preserve">27.1 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -12121,17 +12556,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">56 </t>
+          <t xml:space="preserve">54 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.4 </t>
+          <t xml:space="preserve">0.9 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">326 </t>
+          <t xml:space="preserve">291 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -12183,12 +12618,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1007.9 </t>
+          <t xml:space="preserve">1008.4 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12198,7 +12633,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.4 </t>
+          <t xml:space="preserve">26.8 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -12208,17 +12643,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">58 </t>
+          <t xml:space="preserve">56 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">1.4 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">354 </t>
+          <t xml:space="preserve">326 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -12270,12 +12705,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008.0 </t>
+          <t xml:space="preserve">1007.9 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12285,7 +12720,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.8 </t>
+          <t xml:space="preserve">25.4 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -12295,7 +12730,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">65 </t>
+          <t xml:space="preserve">58 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -12305,7 +12740,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">356 </t>
+          <t xml:space="preserve">354 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -12357,12 +12792,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008.5 </t>
+          <t xml:space="preserve">1008.0 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -12372,7 +12807,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.2 </t>
+          <t xml:space="preserve">23.8 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -12382,17 +12817,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">74 </t>
+          <t xml:space="preserve">65 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.6 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 </t>
+          <t xml:space="preserve">356 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -12444,12 +12879,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.1 </t>
+          <t xml:space="preserve">1008.5 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -12459,7 +12894,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">21.2 </t>
+          <t xml:space="preserve">22.2 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -12469,17 +12904,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">81 </t>
+          <t xml:space="preserve">74 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.7 </t>
+          <t xml:space="preserve">0.6 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">329 </t>
+          <t xml:space="preserve">315 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -12531,12 +12966,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.4 </t>
+          <t xml:space="preserve">1009.1 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12546,7 +12981,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.8 </t>
+          <t xml:space="preserve">21.2 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -12556,17 +12991,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">86 </t>
+          <t xml:space="preserve">81 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.8 </t>
+          <t xml:space="preserve">0.7 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">324 </t>
+          <t xml:space="preserve">329 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -12618,12 +13053,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.5 </t>
+          <t xml:space="preserve">1009.4 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12633,7 +13068,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.5 </t>
+          <t xml:space="preserve">20.8 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -12643,17 +13078,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">93 </t>
+          <t xml:space="preserve">86 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">0.8 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">324 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -12705,12 +13140,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.3 </t>
+          <t xml:space="preserve">1009.5 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12730,17 +13165,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">95 </t>
+          <t xml:space="preserve">93 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.3 </t>
+          <t xml:space="preserve">0.0 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">131 </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -12792,12 +13227,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.7 </t>
+          <t xml:space="preserve">1009.3 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -12807,7 +13242,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.4 </t>
+          <t xml:space="preserve">20.5 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -12817,17 +13252,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">96 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2 </t>
+          <t xml:space="preserve">0.3 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">165 </t>
+          <t xml:space="preserve">131 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -12879,12 +13314,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1009.3 </t>
+          <t xml:space="preserve">1009.7 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -12894,7 +13329,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">20.1 </t>
+          <t xml:space="preserve">20.4 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -12904,17 +13339,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">98 </t>
+          <t xml:space="preserve">96 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t xml:space="preserve">1.2 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 </t>
+          <t xml:space="preserve">165 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -12966,85 +13401,172 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">1009.3 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20.1 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">98 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t xml:space="preserve">1009.2 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">19.9 </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">99 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">0 </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0 </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">... </t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.0 </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... </t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">... </t>
         </is>
